--- a/code/exps/compare_models.xlsx
+++ b/code/exps/compare_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EEGuizhi\Project\code\exps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B535697-7EDF-43DF-8AD9-D4E129541629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC6844C-61D8-4C93-8289-938BE6D31FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,22 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HRNetOCR Model Revision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRNetOCR Manual Revision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNet Model Revision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNet Manual Revision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>samples @MRE=30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,14 +110,6 @@
   </si>
   <si>
     <t>samples @MRE=50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRNetOCR error diff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNet error diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -212,6 +188,30 @@
     <t>parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>HRNetOCR IKEM Revision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNet IKEM Revision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNet IKEM Manual Revision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRNetOCR IKEM Manual Revision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRNetOCR IKEM error diff.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNet IKEM error diff.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -264,6 +264,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBF1717"/>
+      <color rgb="FFD00000"/>
+      <color rgb="FFE94949"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -273,6 +280,2528 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>(a) MRE for increasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> number of preditions</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRNetOCR IKEM Revision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>53.855960000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.716419999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.887999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.79486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.37218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.112189999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.773859999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.168189999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7026-4035-B7CB-1E0EC974872A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRNetOCR IKEM Manual Revision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                  <a:alpha val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>53.855960000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.281379999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.894350000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.686860000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.596089999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.296799999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.052529999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.85716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7026-4035-B7CB-1E0EC974872A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UNet IKEM Revision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$AA$2:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>51.933311551809297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.016795054078102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.829572796821498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.393740426748899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.1591184549033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.6923928633332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.864410318434199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.067239269614198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7026-4035-B7CB-1E0EC974872A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UNet IKEM Manual Revision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="BF1717">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="BF1717">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="BF1717">
+                    <a:alpha val="70000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$AB$2:$AB$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>51.933311551809297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.431682180613201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.063396789133499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.795855261385398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.609665084630201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.1799194216728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.814248301088803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.494544863700803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7026-4035-B7CB-1E0EC974872A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1418458480"/>
+        <c:axId val="1418459312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1418458480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of predictions</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> (number of user interactions + 1)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418459312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1418459312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Mean radial error</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418458480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:glow rad="38100">
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg2"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>(b) Difference in MRE between the manual</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>revision</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>and model revision</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$AI$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRNetOCR IKEM error diff.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$AI$2:$AI$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1395400000000038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.967960000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.061100000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.483780000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.743770000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.082100000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.687770000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-966C-439C-909B-DBB4F776B425}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UNet IKEM error diff.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$AJ$2:$AJ$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.916516497731195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.103738754987798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.539571125060398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.774193096905996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.240918688476096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.068901233375097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.866072282195098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-966C-439C-909B-DBB4F776B425}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1486172560"/>
+        <c:axId val="1486174224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1486172560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of predictions (number of user interactions + 1)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="400">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486174224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1486174224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Difference in error</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1486172560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>71225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>186151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>409074</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>75077</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00AAD09-DE8E-48DE-8B02-195648E845AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>187678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>179493</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67028</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="圖表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343B538C-7602-4970-A0D8-2360498F6D52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,15 +3069,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="W8" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -578,25 +3107,25 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
@@ -626,61 +3155,61 @@
         <v>14</v>
       </c>
       <c r="AA1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AN1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AO1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AP1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AR1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS1" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AT1" t="s">
         <v>28</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.3">
@@ -688,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -734,7 +3263,7 @@
         <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="S2" s="1">
         <v>1</v>
@@ -762,22 +3291,22 @@
         <v>-3.5541534423998655</v>
       </c>
       <c r="AA2">
-        <v>59.215429999999998</v>
+        <v>51.933311551809297</v>
       </c>
       <c r="AB2">
-        <v>59.215429999999998</v>
+        <v>51.933311551809297</v>
       </c>
       <c r="AC2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AD2">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="AE2">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="AF2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AI2">
         <f>K2-K2</f>
@@ -805,19 +3334,19 @@
       </c>
       <c r="AQ2">
         <f>( AC2*A2 + (AC3-AC2)*A3 + (AC4-AC3)*A4 + (AC5-AC4)*A5 + (AC6-AC5)*A6 + (AC7-AC6)*A7 + (AC8-AC7)*A8 + (AC9-AC8)*A9 + (AC10-AC9)*A10 + (AC11-AC10)*A11 + (128-AC11)*A12 )/128</f>
-        <v>6.390625</v>
+        <v>3.125</v>
       </c>
       <c r="AR2">
         <f>( AD2*A2 + (AD3-AD2)*A3 + (AD4-AD3)*A4 + (AD5-AD4)*A5 + (AD6-AD5)*A6 + (AD7-AD6)*A7 + (AD8-AD7)*A8 + (AD9-AD8)*A9 + (AD10-AD9)*A10 + (AD11-AD10)*A11 + (128-AD11)*A12 )/128</f>
-        <v>3.8671875</v>
+        <v>1.953125</v>
       </c>
       <c r="AS2">
         <f>( AE2*A2 + (AE3-AE2)*A3 + (AE4-AE3)*A4 + (AE5-AE4)*A5 + (AE6-AE5)*A6 + (AE7-AE6)*A7 + (AE8-AE7)*A8 + (AE9-AE8)*A9 + (AE10-AE9)*A10 + (AE11-AE10)*A11 + (128-AE11)*A12 )/128</f>
-        <v>2.828125</v>
+        <v>1.7109375</v>
       </c>
       <c r="AT2">
         <f>( AF2*A2 + (AF3-AF2)*A3 + (AF4-AF3)*A4 + (AF5-AF4)*A5 + (AF6-AF5)*A6 + (AF7-AF6)*A7 + (AF8-AF7)*A8 + (AF9-AF8)*A9 + (AF10-AF9)*A10 + (AF11-AF10)*A11 + (128-AF11)*A12 )/128</f>
-        <v>2.3828125</v>
+        <v>1.4140625</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.3">
@@ -899,22 +3428,22 @@
         <v>-0.446343421999984</v>
       </c>
       <c r="AA3">
-        <v>45.36598</v>
+        <v>37.016795054078102</v>
       </c>
       <c r="AB3">
-        <v>56.02975</v>
+        <v>49.431682180613201</v>
       </c>
       <c r="AC3">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="AD3">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="AE3">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AF3">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AI3">
         <f>K2-K3</f>
@@ -922,7 +3451,7 @@
       </c>
       <c r="AJ3">
         <f>AA2-AA3</f>
-        <v>13.849449999999997</v>
+        <v>14.916516497731195</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.3">
@@ -998,22 +3527,22 @@
         <v>-0.30478239050069078</v>
       </c>
       <c r="AA4">
-        <v>39.085920000000002</v>
+        <v>29.829572796821498</v>
       </c>
       <c r="AB4">
-        <v>53.240690000000001</v>
+        <v>47.063396789133499</v>
       </c>
       <c r="AC4">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AD4">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AE4">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="AF4">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AI4">
         <f>K2-K4</f>
@@ -1021,34 +3550,34 @@
       </c>
       <c r="AJ4">
         <f>AA2-AA4</f>
-        <v>20.129509999999996</v>
+        <v>22.103738754987798</v>
       </c>
       <c r="AL4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS4" t="s">
         <v>35</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AT4" t="s">
         <v>36</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.3">
@@ -1124,22 +3653,22 @@
         <v>1.6832351700202253E-2</v>
       </c>
       <c r="AA5">
-        <v>36.347410000000004</v>
+        <v>25.393740426748899</v>
       </c>
       <c r="AB5">
-        <v>50.645769999999999</v>
+        <v>44.795855261385398</v>
       </c>
       <c r="AC5">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AD5">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AE5">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="AF5">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AI5">
         <f>K2-K5</f>
@@ -1147,7 +3676,7 @@
       </c>
       <c r="AJ5">
         <f>AA2-AA5</f>
-        <v>22.868019999999994</v>
+        <v>26.539571125060398</v>
       </c>
       <c r="AL5">
         <f>(128-M12)/128*100</f>
@@ -1167,19 +3696,19 @@
       </c>
       <c r="AQ5">
         <f>(128-AC12) / 128 * 100</f>
-        <v>55.46875</v>
+        <v>15.625</v>
       </c>
       <c r="AR5">
         <f>(128-AD12) / 128 * 100</f>
-        <v>30.46875</v>
+        <v>8.59375</v>
       </c>
       <c r="AS5">
         <f t="shared" ref="AS5:AT5" si="3">(128-AE12) / 128 * 100</f>
-        <v>21.09375</v>
+        <v>8.59375</v>
       </c>
       <c r="AT5">
         <f t="shared" si="3"/>
-        <v>18.75</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.3">
@@ -1255,22 +3784,22 @@
         <v>0.25347471240024788</v>
       </c>
       <c r="AA6">
-        <v>34.835520000000002</v>
+        <v>23.1591184549033</v>
       </c>
       <c r="AB6">
-        <v>48.274140000000003</v>
+        <v>42.609665084630201</v>
       </c>
       <c r="AC6">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="AD6">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="AE6">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AF6">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AI6">
         <f>K2-K6</f>
@@ -1278,7 +3807,7 @@
       </c>
       <c r="AJ6">
         <f>AA2-AA6</f>
-        <v>24.379909999999995</v>
+        <v>28.774193096905996</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.3">
@@ -1354,22 +3883,22 @@
         <v>-0.11243820190003362</v>
       </c>
       <c r="AA7">
-        <v>34.054960000000001</v>
+        <v>21.6923928633332</v>
       </c>
       <c r="AB7">
-        <v>46.70288</v>
+        <v>41.1799194216728</v>
       </c>
       <c r="AC7">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="AD7">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="AE7">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AF7">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AI7">
         <f>K2-K7</f>
@@ -1377,7 +3906,7 @@
       </c>
       <c r="AJ7">
         <f>AA2-AA7</f>
-        <v>25.160469999999997</v>
+        <v>30.240918688476096</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.3">
@@ -1453,22 +3982,22 @@
         <v>0.24892091749961764</v>
       </c>
       <c r="AA8">
-        <v>33.751330000000003</v>
+        <v>20.864410318434199</v>
       </c>
       <c r="AB8">
-        <v>45.208620000000003</v>
+        <v>39.814248301088803</v>
       </c>
       <c r="AC8">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AD8">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="AE8">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AF8">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AI8">
         <f>K2-K8</f>
@@ -1476,7 +4005,7 @@
       </c>
       <c r="AJ8">
         <f>AA2-AA8</f>
-        <v>25.464099999999995</v>
+        <v>31.068901233375097</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.3">
@@ -1552,22 +4081,22 @@
         <v>-0.37624835970007098</v>
       </c>
       <c r="AA9">
-        <v>33.613100000000003</v>
+        <v>20.067239269614198</v>
       </c>
       <c r="AB9">
-        <v>43.766979999999997</v>
+        <v>38.494544863700803</v>
       </c>
       <c r="AC9">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="AD9">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="AE9">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AF9">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AI9">
         <f>K2-K9</f>
@@ -1575,7 +4104,7 @@
       </c>
       <c r="AJ9">
         <f>AA2-AA9</f>
-        <v>25.602329999999995</v>
+        <v>31.866072282195098</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.3">
@@ -1651,22 +4180,22 @@
         <v>1.3724446297004533</v>
       </c>
       <c r="AA10">
-        <v>33.452199999999998</v>
+        <v>19.565752804279299</v>
       </c>
       <c r="AB10">
-        <v>42.379100000000001</v>
+        <v>37.222383700311099</v>
       </c>
       <c r="AC10">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="AD10">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="AE10">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AF10">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AI10">
         <f>K2-K10</f>
@@ -1674,7 +4203,7 @@
       </c>
       <c r="AJ10">
         <f>AA2-AA10</f>
-        <v>25.76323</v>
+        <v>32.367558747529998</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.3">
@@ -1750,22 +4279,22 @@
         <v>-0.34019947050012433</v>
       </c>
       <c r="AA11">
-        <v>33.395769999999999</v>
+        <v>19.267414852976799</v>
       </c>
       <c r="AB11">
-        <v>41.040050000000001</v>
+        <v>35.994146835058899</v>
       </c>
       <c r="AC11">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="AD11">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="AE11">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AF11">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AI11">
         <f>K2-K11</f>
@@ -1773,7 +4302,7 @@
       </c>
       <c r="AJ11">
         <f>AA2-AA11</f>
-        <v>25.819659999999999</v>
+        <v>32.665896698832498</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.3">
@@ -1849,22 +4378,22 @@
         <v>-0.28704404829937857</v>
       </c>
       <c r="AA12">
-        <v>33.38306</v>
+        <v>19.066860646009399</v>
       </c>
       <c r="AB12">
-        <v>39.753810000000001</v>
+        <v>34.803076561540301</v>
       </c>
       <c r="AC12">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="AD12">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="AE12">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AF12">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AI12">
         <f>K2-K12</f>
@@ -1872,7 +4401,7 @@
       </c>
       <c r="AJ12">
         <f>AA2-AA12</f>
-        <v>25.832369999999997</v>
+        <v>32.866450905799894</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.3">
@@ -6663,5 +9192,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/code/exps/compare_models.xlsx
+++ b/code/exps/compare_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\EEGuizhi\Project\code\exps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5F647A-A1D0-483C-812E-531C6530AA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B626D0-D86A-49C0-B7BC-AFF00AB03812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3395,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3655,36 +3655,36 @@
         <v>0</v>
       </c>
       <c r="AL2">
-        <f>( M2*A2 + (M3-M2)*A3 + (M4-M3)*A4 + (M5-M4)*A5 + (M6-M5)*A6 + (M7-M6)*A7 + (M8-M7)*A8 + (M9-M8)*A9 + (M10-M9)*A10 + (M11-M10)*A11 + (128-M11)*A12 )/128</f>
-        <v>3.1015625</v>
+        <f>( M2*$A2 + (M3-M2)*$A3 + (M4-M3)*$A4 + (M5-M4)*$A5 + (M6-M5)*$A6 + (M7-M6)*$A7 + (M8-M7)*$A8 + (M9-M8)*$A9 + (M10-M9)*$A10 + (M11-M10)*$A11 + (M12-M11)*$A12 )/M12</f>
+        <v>1.5096153846153846</v>
       </c>
       <c r="AM2">
-        <f>( N2*A2 + (N3-N2)*A3 + (N4-N3)*A4 + (N5-N4)*A5 + (N6-N5)*A6 + (N7-N6)*A7 + (N8-N7)*A8 + (N9-N8)*A9 + (N10-N9)*A10 + (N11-N10)*A11 + (128-N11)*A12 )/128</f>
-        <v>2.5390625</v>
+        <f t="shared" ref="AM2:AO2" si="0">( N2*$A2 + (N3-N2)*$A3 + (N4-N3)*$A4 + (N5-N4)*$A5 + (N6-N5)*$A6 + (N7-N6)*$A7 + (N8-N7)*$A8 + (N9-N8)*$A9 + (N10-N9)*$A10 + (N11-N10)*$A11 + (N12-N11)*$A12 )/N12</f>
+        <v>1.238532110091743</v>
       </c>
       <c r="AN2">
-        <f>( O2*A2 + (O3-O2)*A3 + (O4-O3)*A4 + (O5-O4)*A5 + (O6-O5)*A6 + (O7-O6)*A7 + (O8-O7)*A8 + (O9-O8)*A9 + (O10-O9)*A10 + (O11-O10)*A11 + (128-O11)*A12 )/128</f>
-        <v>2.171875</v>
+        <f t="shared" si="0"/>
+        <v>0.89090909090909087</v>
       </c>
       <c r="AO2">
-        <f>( P2*A2 + (P3-P2)*A3 + (P4-P3)*A4 + (P5-P4)*A5 + (P6-P5)*A6 + (P7-P6)*A7 + (P8-P7)*A8 + (P9-P8)*A9 + (P10-P9)*A10 + (P11-P10)*A11 + (128-P11)*A12 )/128</f>
-        <v>1.9765625</v>
+        <f t="shared" si="0"/>
+        <v>0.74774774774774777</v>
       </c>
       <c r="AQ2">
-        <f>( AC2*A2 + (AC3-AC2)*A3 + (AC4-AC3)*A4 + (AC5-AC4)*A5 + (AC6-AC5)*A6 + (AC7-AC6)*A7 + (AC8-AC7)*A8 + (AC9-AC8)*A9 + (AC10-AC9)*A10 + (AC11-AC10)*A11 + (128-AC11)*A12 )/128</f>
-        <v>2.3984375</v>
+        <f>( AC2*$A2 + (AC3-AC2)*$A3 + (AC4-AC3)*$A4 + (AC5-AC4)*$A5 + (AC6-AC5)*$A6 + (AC7-AC6)*$A7 + (AC8-AC7)*$A8 + (AC9-AC8)*$A9 + (AC10-AC9)*$A10 + (AC11-AC10)*$A11 + (AC12-AC11)*$A12 )/AC12</f>
+        <v>1.7542372881355932</v>
       </c>
       <c r="AR2">
-        <f>( AD2*A2 + (AD3-AD2)*A3 + (AD4-AD3)*A4 + (AD5-AD4)*A5 + (AD6-AD5)*A6 + (AD7-AD6)*A7 + (AD8-AD7)*A8 + (AD9-AD8)*A9 + (AD10-AD9)*A10 + (AD11-AD10)*A11 + (128-AD11)*A12 )/128</f>
-        <v>1.875</v>
+        <f t="shared" ref="AR2:AT2" si="1">( AD2*$A2 + (AD3-AD2)*$A3 + (AD4-AD3)*$A4 + (AD5-AD4)*$A5 + (AD6-AD5)*$A6 + (AD7-AD6)*$A7 + (AD8-AD7)*$A8 + (AD9-AD8)*$A9 + (AD10-AD9)*$A10 + (AD11-AD10)*$A11 + (AD12-AD11)*$A12 )/AD12</f>
+        <v>1.4754098360655739</v>
       </c>
       <c r="AS2">
-        <f>( AE2*A2 + (AE3-AE2)*A3 + (AE4-AE3)*A4 + (AE5-AE4)*A5 + (AE6-AE5)*A6 + (AE7-AE6)*A7 + (AE8-AE7)*A8 + (AE9-AE8)*A9 + (AE10-AE9)*A10 + (AE11-AE10)*A11 + (128-AE11)*A12 )/128</f>
-        <v>1.5390625</v>
+        <f t="shared" si="1"/>
+        <v>1.1951219512195121</v>
       </c>
       <c r="AT2">
-        <f>( AF2*A2 + (AF3-AF2)*A3 + (AF4-AF3)*A4 + (AF5-AF4)*A5 + (AF6-AF5)*A6 + (AF7-AF6)*A7 + (AF8-AF7)*A8 + (AF9-AF8)*A9 + (AF10-AF9)*A10 + (AF11-AF10)*A11 + (128-AF11)*A12 )/128</f>
-        <v>1.3046875</v>
+        <f t="shared" si="1"/>
+        <v>0.95121951219512191</v>
       </c>
       <c r="AZ2">
         <v>58.58</v>
@@ -3771,7 +3771,7 @@
         <v>221.01934409141501</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z66" si="0">(X3 - Y3)</f>
+        <f t="shared" ref="Z3:Z66" si="2">(X3 - Y3)</f>
         <v>-4.9724578859979829E-3</v>
       </c>
       <c r="AA3">
@@ -3837,7 +3837,7 @@
         <v>94.252528905868502</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="1">(H4 - I4)</f>
+        <f t="shared" ref="J4:J67" si="3">(H4 - I4)</f>
         <v>-1.9371509550580868E-4</v>
       </c>
       <c r="K4">
@@ -3880,7 +3880,7 @@
         <v>169.05795741081201</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.0363807677995283E-2</v>
       </c>
       <c r="AA4">
@@ -3973,7 +3973,7 @@
         <v>92.095247268676701</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.824187278804402E-3</v>
       </c>
       <c r="K5">
@@ -4016,7 +4016,7 @@
         <v>138.81908535957299</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.918409347988927E-3</v>
       </c>
       <c r="AA5">
@@ -4050,15 +4050,15 @@
         <v>18.75</v>
       </c>
       <c r="AM5">
-        <f t="shared" ref="AM5:AO5" si="2">(128-N12)/128*100</f>
+        <f t="shared" ref="AM5:AO5" si="4">(128-N12)/128*100</f>
         <v>14.84375</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.0625</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.28125</v>
       </c>
       <c r="AQ5">
@@ -4070,11 +4070,11 @@
         <v>4.6875</v>
       </c>
       <c r="AS5">
-        <f t="shared" ref="AS5:AT5" si="3">(128-AE12) / 128 * 100</f>
+        <f t="shared" ref="AS5:AT5" si="5">(128-AE12) / 128 * 100</f>
         <v>3.90625</v>
       </c>
       <c r="AT5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.90625</v>
       </c>
       <c r="AZ5">
@@ -4114,7 +4114,7 @@
         <v>52.567317962646399</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.5678286552400778E-2</v>
       </c>
       <c r="K6">
@@ -4157,7 +4157,7 @@
         <v>123.983193039894</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.2412548066009776E-2</v>
       </c>
       <c r="AA6">
@@ -4223,7 +4223,7 @@
         <v>37.977631300687698</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.6582479476005005E-3</v>
       </c>
       <c r="K7">
@@ -4266,7 +4266,7 @@
         <v>117.197801470756</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.4305114700619015E-4</v>
       </c>
       <c r="AA7">
@@ -4332,7 +4332,7 @@
         <v>29.844987273216201</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.1416357755700091E-2</v>
       </c>
       <c r="K8">
@@ -4375,7 +4375,7 @@
         <v>115.43410181999199</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2159347008378063E-5</v>
       </c>
       <c r="AA8">
@@ -4431,7 +4431,7 @@
         <v>28.8913863748312</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.4144989252101112E-2</v>
       </c>
       <c r="K9">
@@ -4474,7 +4474,7 @@
         <v>114.378567814826</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.1863451000049281E-3</v>
       </c>
       <c r="AA9">
@@ -4530,7 +4530,7 @@
         <v>20.453685879707301</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.21207338571549883</v>
       </c>
       <c r="K10">
@@ -4573,7 +4573,7 @@
         <v>111.962120532989</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.6359558110016224E-3</v>
       </c>
       <c r="AA10">
@@ -4629,7 +4629,7 @@
         <v>30.243312716483999</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.4064162969599892E-2</v>
       </c>
       <c r="K11">
@@ -4672,7 +4672,7 @@
         <v>104.22520422935401</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0837526329937646E-3</v>
       </c>
       <c r="AA11">
@@ -4728,7 +4728,7 @@
         <v>18.033908970654</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.6168543398298567E-2</v>
       </c>
       <c r="K12">
@@ -4771,7 +4771,7 @@
         <v>96.923662424087496</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0244054794297313E-2</v>
       </c>
       <c r="AA12">
@@ -4824,7 +4824,7 @@
         <v>23.088174350559701</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.28473030775779762</v>
       </c>
       <c r="S13" s="1">
@@ -4849,7 +4849,7 @@
         <v>93.621470212936401</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12285315990439472</v>
       </c>
     </row>
@@ -4876,7 +4876,7 @@
         <v>14.593647960573399</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9846076667299926E-2</v>
       </c>
       <c r="S14" s="1">
@@ -4901,7 +4901,7 @@
         <v>88.129959702491703</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37441134452819824</v>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
         <v>12.067337848246</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8413105309100146E-2</v>
       </c>
       <c r="S15" s="1">
@@ -4953,7 +4953,7 @@
         <v>79.682235598564105</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.51092958450318804</v>
       </c>
     </row>
@@ -4980,7 +4980,7 @@
         <v>17.443512506783001</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63132362067699788</v>
       </c>
       <c r="S16" s="1">
@@ -5005,7 +5005,7 @@
         <v>70.566741645336094</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30784261226651211</v>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
         <v>12.187969438731599</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.993673086159987E-2</v>
       </c>
       <c r="S17" s="1">
@@ -5057,7 +5057,7 @@
         <v>72.5461248159408</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3288185000420043</v>
       </c>
     </row>
@@ -5084,7 +5084,7 @@
         <v>21.420145999640201</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6957720667123972</v>
       </c>
       <c r="S18" s="1">
@@ -5109,7 +5109,7 @@
         <v>65.070350468158694</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.39781016111371059</v>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
         <v>14.7983746156096</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.58303307741880062</v>
       </c>
       <c r="S19" s="1">
@@ -5161,7 +5161,7 @@
         <v>60.0612333416938</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.55691820383079715</v>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
         <v>17.0070086121559</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31360220909120073</v>
       </c>
       <c r="S20" s="1">
@@ -5213,7 +5213,7 @@
         <v>54.806087791919701</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1583213210105967</v>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
         <v>12.3681047931313</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.44097447395320089</v>
       </c>
       <c r="S21" s="1">
@@ -5265,7 +5265,7 @@
         <v>44.694458365440298</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2878032922745035</v>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
         <v>18.7801145687699</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.78517280519010058</v>
       </c>
       <c r="S22" s="1">
@@ -5317,7 +5317,7 @@
         <v>41.935822337865801</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8858069479464987</v>
       </c>
     </row>
@@ -5344,7 +5344,7 @@
         <v>18.301232390105699</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.68336420878770099</v>
       </c>
       <c r="S23" s="1">
@@ -5369,7 +5369,7 @@
         <v>38.083169639110501</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4834727644920989</v>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
         <v>13.4823736660182</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2387364692986012</v>
       </c>
       <c r="S24" s="1">
@@ -5421,7 +5421,7 @@
         <v>48.465565025806399</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5478031635283998</v>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
         <v>11.7407287508249</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86380518972869957</v>
       </c>
       <c r="S25" s="1">
@@ -5473,7 +5473,7 @@
         <v>39.089137107133801</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9785083830356953</v>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
         <v>15.3734054639935</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.90431594476099875</v>
       </c>
       <c r="S26" s="1">
@@ -5525,7 +5525,7 @@
         <v>30.053131580352701</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4341418445110996</v>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
         <v>12.564252018928499</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4183164350688013</v>
       </c>
       <c r="S27" s="1">
@@ -5577,7 +5577,7 @@
         <v>34.008556604385298</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3644948303699991</v>
       </c>
     </row>
@@ -5604,7 +5604,7 @@
         <v>30.330384172499102</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.50693859159940047</v>
       </c>
       <c r="S28" s="1">
@@ -5629,7 +5629,7 @@
         <v>29.342835605144501</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.89865487813939993</v>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
         <v>9.7020205259323102</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.57175816223018927</v>
       </c>
       <c r="S29" s="1">
@@ -5681,7 +5681,7 @@
         <v>26.107108429074199</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8733046799899</v>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
         <v>11.262073874473501</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3247180692851988</v>
       </c>
       <c r="S30" s="1">
@@ -5733,7 +5733,7 @@
         <v>25.766648232936799</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6706232279539002</v>
       </c>
     </row>
@@ -5760,7 +5760,7 @@
         <v>13.567155875265501</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45182814821609973</v>
       </c>
       <c r="S31" s="1">
@@ -5785,7 +5785,7 @@
         <v>22.209519207477499</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.60555975139140017</v>
       </c>
     </row>
@@ -5812,7 +5812,7 @@
         <v>10.885559115558801</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89985818415880026</v>
       </c>
       <c r="S32" s="1">
@@ -5837,7 +5837,7 @@
         <v>26.088583350181501</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.80093410611159754</v>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
         <v>12.875599503517099</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.8728972226400842E-2</v>
       </c>
       <c r="S33" s="1">
@@ -5889,7 +5889,7 @@
         <v>25.844408705830499</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9221783727407988</v>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
         <v>15.030670102685599</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.9383631646599397E-2</v>
       </c>
       <c r="S34" s="1">
@@ -5941,7 +5941,7 @@
         <v>19.462077885866101</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2819654494524002</v>
       </c>
     </row>
@@ -5968,7 +5968,7 @@
         <v>10.9797193352133</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.74582250230010061</v>
       </c>
       <c r="S35" s="1">
@@ -5993,7 +5993,7 @@
         <v>22.845447100698902</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2509418204426979</v>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
         <v>15.048948943614899</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64053368195890137</v>
       </c>
       <c r="S36" s="1">
@@ -6045,7 +6045,7 @@
         <v>21.4221204668283</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3711417317390016</v>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
         <v>8.4192434772848994</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.80865087732673047</v>
       </c>
       <c r="S37" s="1">
@@ -6097,7 +6097,7 @@
         <v>21.161745846271501</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2242379039525986</v>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
         <v>9.7438949942588806</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.51119702681891965</v>
       </c>
       <c r="S38" s="1">
@@ -6149,7 +6149,7 @@
         <v>19.919391550123599</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.27258267253640156</v>
       </c>
     </row>
@@ -6176,7 +6176,7 @@
         <v>15.443472940474701</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1350246183574004</v>
       </c>
       <c r="S39" s="1">
@@ -6201,7 +6201,7 @@
         <v>20.7033834978938</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.0858511105179005</v>
       </c>
     </row>
@@ -6228,7 +6228,7 @@
         <v>10.691937752068</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4202532060444</v>
       </c>
       <c r="S40" s="1">
@@ -6253,7 +6253,7 @@
         <v>26.325658097863101</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1834974288940998</v>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>9.7291718386113608</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8858863040804383</v>
       </c>
       <c r="S41" s="1">
@@ -6305,7 +6305,7 @@
         <v>19.4015140458941</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4177791848779009</v>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
         <v>9.9847187921404803</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89066176116461904</v>
       </c>
       <c r="S42" s="1">
@@ -6357,7 +6357,7 @@
         <v>16.667655840516002</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9025564566254971</v>
       </c>
     </row>
@@ -6384,7 +6384,7 @@
         <v>11.3452924359589</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.9629498403519996</v>
       </c>
       <c r="S43" s="1">
@@ -6409,7 +6409,7 @@
         <v>27.613109275698601</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0939694941043996</v>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
         <v>16.109658133238501</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.49065009504559853</v>
       </c>
       <c r="S44" s="1">
@@ -6461,7 +6461,7 @@
         <v>19.121588803827699</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9795560240746006</v>
       </c>
     </row>
@@ -6488,7 +6488,7 @@
         <v>9.5025872252881491</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2336075976490513</v>
       </c>
       <c r="S45" s="1">
@@ -6513,7 +6513,7 @@
         <v>15.8889085203409</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2151746079324983</v>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
         <v>11.630285128951</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.155076667666501</v>
       </c>
       <c r="S46" s="1">
@@ -6565,7 +6565,7 @@
         <v>16.009788848459699</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5365407764911012</v>
       </c>
     </row>
@@ -6592,7 +6592,7 @@
         <v>11.1856737788766</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2425491269678002</v>
       </c>
       <c r="S47" s="1">
@@ -6617,7 +6617,7 @@
         <v>14.194693803787199</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.6632017791270997</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>10.350822422653399</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2700342386961001</v>
       </c>
       <c r="S48" s="1">
@@ -6669,7 +6669,7 @@
         <v>16.885412178933599</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.8767115995288002</v>
       </c>
     </row>
@@ -6696,7 +6696,7 @@
         <v>12.8863215520977</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2468000911177004</v>
       </c>
       <c r="S49" s="1">
@@ -6721,7 +6721,7 @@
         <v>17.9273488782346</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30491572991009974</v>
       </c>
     </row>
@@ -6748,7 +6748,7 @@
         <v>9.7245587483048403</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.56261131539936038</v>
       </c>
       <c r="S50" s="1">
@@ -6773,7 +6773,7 @@
         <v>12.820922322571199</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.7817667424678998</v>
       </c>
     </row>
@@ -6800,7 +6800,7 @@
         <v>9.6505068056285292</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1772676017134707</v>
       </c>
       <c r="S51" s="1">
@@ -6825,7 +6825,7 @@
         <v>15.3970504924654</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.4685490354895983</v>
       </c>
     </row>
@@ -6852,7 +6852,7 @@
         <v>13.672709453850899</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1704379171133006</v>
       </c>
       <c r="S52" s="1">
@@ -6877,7 +6877,7 @@
         <v>13.179456539452</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8730849474669018</v>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
         <v>9.8676988147199101</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4021904915570893</v>
       </c>
       <c r="S53" s="1">
@@ -6929,7 +6929,7 @@
         <v>16.569206275045801</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4055818021297988</v>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
         <v>9.6976282708346808</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7659538611769197</v>
       </c>
       <c r="S54" s="1">
@@ -6981,7 +6981,7 @@
         <v>13.8911846391856</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8580659069121008</v>
       </c>
     </row>
@@ -7008,7 +7008,7 @@
         <v>7.7093364484608102</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1332654003053904</v>
       </c>
       <c r="S55" s="1">
@@ -7033,7 +7033,7 @@
         <v>14.310596175491799</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.7013211995363022</v>
       </c>
     </row>
@@ -7060,7 +7060,7 @@
         <v>14.585845261812199</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1659082137047996</v>
       </c>
       <c r="S56" s="1">
@@ -7085,7 +7085,7 @@
         <v>13.861863322555999</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3823497146368009</v>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
         <v>10.355606377124699</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3888028040529008</v>
       </c>
       <c r="S57" s="1">
@@ -7137,7 +7137,7 @@
         <v>12.8173658251762</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2782926708459996</v>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
         <v>11.1502231582999</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89564285054800052</v>
       </c>
       <c r="S58" s="1">
@@ -7189,7 +7189,7 @@
         <v>13.631052955985</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.2147036045789985</v>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
         <v>14.6208692863583</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1587700322270003</v>
       </c>
       <c r="S59" s="1">
@@ -7241,7 +7241,7 @@
         <v>11.6417300105094</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.9632661119104</v>
       </c>
     </row>
@@ -7268,7 +7268,7 @@
         <v>10.262073002755599</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5058095566928014</v>
       </c>
       <c r="S60" s="1">
@@ -7293,7 +7293,7 @@
         <v>12.391129337251099</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3855121731758011</v>
       </c>
     </row>
@@ -7320,7 +7320,7 @@
         <v>7.7501051370054403</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3100068848579598</v>
       </c>
       <c r="S61" s="1">
@@ -7345,7 +7345,7 @@
         <v>14.6037684679031</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5843658298253995</v>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
         <v>9.4562857504934001</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1894308831542002</v>
       </c>
       <c r="S62" s="1">
@@ -7397,7 +7397,7 @@
         <v>14.094273537397299</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4870839789510022</v>
       </c>
     </row>
@@ -7424,7 +7424,7 @@
         <v>9.14951575174927</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0732872579246298</v>
       </c>
       <c r="S63" s="1">
@@ -7449,7 +7449,7 @@
         <v>12.575040385127</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9096923246979998</v>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
         <v>10.9696345105767</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4320282377302007</v>
       </c>
       <c r="S64" s="1">
@@ -7501,7 +7501,7 @@
         <v>13.841975823044701</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0841677039861981</v>
       </c>
     </row>
@@ -7528,7 +7528,7 @@
         <v>8.7311297077685595</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2208987269550509</v>
       </c>
       <c r="S65" s="1">
@@ -7553,7 +7553,7 @@
         <v>12.605340730398799</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.4326023273170012</v>
       </c>
     </row>
@@ -7580,7 +7580,7 @@
         <v>8.6424117460846901</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2350816000252092</v>
       </c>
       <c r="S66" s="1">
@@ -7605,7 +7605,7 @@
         <v>11.902546800673001</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.9110682234167999</v>
       </c>
     </row>
@@ -7632,7 +7632,7 @@
         <v>8.8076401408761704</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6659925803541302</v>
       </c>
       <c r="S67" s="1">
@@ -7657,7 +7657,7 @@
         <v>10.707485474646001</v>
       </c>
       <c r="Z67">
-        <f t="shared" ref="Z67:Z130" si="4">(X67 - Y67)</f>
+        <f t="shared" ref="Z67:Z130" si="6">(X67 - Y67)</f>
         <v>2.2792949154972995</v>
       </c>
     </row>
@@ -7684,7 +7684,7 @@
         <v>9.5500844065099901</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J126" si="5">(H68 - I68)</f>
+        <f t="shared" ref="J68:J126" si="7">(H68 - I68)</f>
         <v>2.6409147940576094</v>
       </c>
       <c r="S68" s="1">
@@ -7709,7 +7709,7 @@
         <v>13.277305707335399</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1032836921512992</v>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
         <v>8.3294464629143405</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0033650267868595</v>
       </c>
       <c r="S69" s="1">
@@ -7761,7 +7761,7 @@
         <v>12.3558830879628</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0723945237695993</v>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
         <v>8.2681105695664794</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0228150244802201</v>
       </c>
       <c r="S70" s="1">
@@ -7813,7 +7813,7 @@
         <v>11.193945109844201</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0827149972318999</v>
       </c>
     </row>
@@ -7840,7 +7840,7 @@
         <v>7.5902931131422502</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8410774208605289</v>
       </c>
       <c r="S71" s="1">
@@ -7865,7 +7865,7 @@
         <v>12.033187571913</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7532268725334994</v>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
         <v>9.4051688630133796</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0458488091826208</v>
       </c>
       <c r="S72" s="1">
@@ -7917,7 +7917,7 @@
         <v>11.3457721620798</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4322694838046992</v>
       </c>
     </row>
@@ -7944,7 +7944,7 @@
         <v>7.5276007615029803</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6505440622567198</v>
       </c>
       <c r="S73" s="1">
@@ -7969,7 +7969,7 @@
         <v>11.862022720277301</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7457175478339</v>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
         <v>8.5648505408316797</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2019257508218306</v>
       </c>
       <c r="S74" s="1">
@@ -8021,7 +8021,7 @@
         <v>12.9118942469358</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8439581468701007</v>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
         <v>8.0238976720720494</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4280229937285203</v>
       </c>
       <c r="S75" s="1">
@@ -8073,7 +8073,7 @@
         <v>11.5157120972871</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0524514913558995</v>
       </c>
     </row>
@@ -8100,7 +8100,7 @@
         <v>8.2577332258224398</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2737535797059607</v>
       </c>
       <c r="S76" s="1">
@@ -8125,7 +8125,7 @@
         <v>11.572951458394501</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3003873527050001</v>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
         <v>8.8447790406644309</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.886938288807869</v>
       </c>
       <c r="S77" s="1">
@@ -8177,7 +8177,7 @@
         <v>10.0107653737068</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8910173512994994</v>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
         <v>8.7850799709558398</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5864007994532603</v>
       </c>
       <c r="S78" s="1">
@@ -8229,7 +8229,7 @@
         <v>10.1805723272264</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9028997607529003</v>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
         <v>12.4564592596143</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9400353431701998</v>
       </c>
       <c r="S79" s="1">
@@ -8281,7 +8281,7 @@
         <v>10.7901409342885</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2453956007956997</v>
       </c>
     </row>
@@ -8308,7 +8308,7 @@
         <v>8.8308893460780293</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5728547088801701</v>
       </c>
       <c r="S80" s="1">
@@ -8333,7 +8333,7 @@
         <v>10.6834489628672</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5156205929816</v>
       </c>
     </row>
@@ -8360,7 +8360,7 @@
         <v>8.1156791709363407</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7443593889474585</v>
       </c>
       <c r="S81" s="1">
@@ -8385,7 +8385,7 @@
         <v>11.1640402898192</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1623007133603007</v>
       </c>
     </row>
@@ -8412,7 +8412,7 @@
         <v>8.1084231808781606</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.3243171572684389</v>
       </c>
       <c r="S82" s="1">
@@ -8437,7 +8437,7 @@
         <v>10.138410277664599</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3498586565256012</v>
       </c>
     </row>
@@ -8464,7 +8464,7 @@
         <v>9.0690769795328308</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3909884188323698</v>
       </c>
       <c r="S83" s="1">
@@ -8489,7 +8489,7 @@
         <v>11.1730565726757</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6553192734718003</v>
       </c>
     </row>
@@ -8516,7 +8516,7 @@
         <v>9.4491380024701304</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9270901028066696</v>
       </c>
       <c r="S84" s="1">
@@ -8541,7 +8541,7 @@
         <v>11.2260005772113</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2192025706172007</v>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
         <v>8.7729493584483809</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6885591708123187</v>
       </c>
       <c r="S85" s="1">
@@ -8593,7 +8593,7 @@
         <v>9.4731717780232394</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0260038748382598</v>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
         <v>8.4305463749915308</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2752383109181693</v>
       </c>
       <c r="S86" s="1">
@@ -8645,7 +8645,7 @@
         <v>19.924518354237001</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.7194416671991988</v>
       </c>
     </row>
@@ -8672,7 +8672,7 @@
         <v>10.5389154497534</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4957494009286005</v>
       </c>
       <c r="S87" s="1">
@@ -8697,7 +8697,7 @@
         <v>12.0211106687784</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.921391226351199</v>
       </c>
     </row>
@@ -8724,7 +8724,7 @@
         <v>7.9721474964171604</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0207946244627193</v>
       </c>
       <c r="S88" s="1">
@@ -8749,7 +8749,7 @@
         <v>11.345548029989001</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7366510219871998</v>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
         <v>6.8782449252903399</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9260939713567504</v>
       </c>
       <c r="S89" s="1">
@@ -8801,7 +8801,7 @@
         <v>10.278320379555201</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9595299661159</v>
       </c>
     </row>
@@ -8828,7 +8828,7 @@
         <v>9.7716666366904903</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9864513948559104</v>
       </c>
       <c r="S90" s="1">
@@ -8853,7 +8853,7 @@
         <v>10.768229573965</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4555344581604004</v>
       </c>
     </row>
@@ -8880,7 +8880,7 @@
         <v>9.2289181090891308</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.759045109152769</v>
       </c>
       <c r="S91" s="1">
@@ -8905,7 +8905,7 @@
         <v>10.4794497974216</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6682816930116005</v>
       </c>
     </row>
@@ -8932,7 +8932,7 @@
         <v>8.0784201081842095</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2602083235978903</v>
       </c>
       <c r="S92" s="1">
@@ -8957,7 +8957,7 @@
         <v>9.2330944128334504</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9061222784220497</v>
       </c>
     </row>
@@ -8984,7 +8984,7 @@
         <v>8.8151052929461002</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6258584763853996</v>
       </c>
       <c r="S93" s="1">
@@ -9009,7 +9009,7 @@
         <v>9.7472692281007696</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.49447915330523</v>
       </c>
     </row>
@@ -9036,7 +9036,7 @@
         <v>8.3682835660874808</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0561602879315188</v>
       </c>
       <c r="S94" s="1">
@@ -9061,7 +9061,7 @@
         <v>10.0426625423133</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5841159671544993</v>
       </c>
     </row>
@@ -9088,7 +9088,7 @@
         <v>8.8331057336181402</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8413618244230605</v>
       </c>
       <c r="S95" s="1">
@@ -9113,7 +9113,7 @@
         <v>9.7994519136845994</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1055699288845009</v>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
         <v>9.9438830483704805</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4431798346340194</v>
       </c>
       <c r="S96" s="1">
@@ -9165,7 +9165,7 @@
         <v>11.278658319264601</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8765488229692</v>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
         <v>7.2814258448779503</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6883885636925688</v>
       </c>
       <c r="S97" s="1">
@@ -9217,7 +9217,7 @@
         <v>9.9826668053865397</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.1079829744994605</v>
       </c>
     </row>
@@ -9244,7 +9244,7 @@
         <v>10.0264853332191</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2971004247666009</v>
       </c>
       <c r="S98" s="1">
@@ -9269,7 +9269,7 @@
         <v>9.8127202354371494</v>
       </c>
       <c r="Z98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5098324939608503</v>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
         <v>10.025147197768</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8163693100214005</v>
       </c>
       <c r="S99" s="1">
@@ -9321,7 +9321,7 @@
         <v>9.7443505190312791</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3244344182312204</v>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
         <v>7.43889938853681</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0534854885190699</v>
       </c>
       <c r="S100" s="1">
@@ -9373,7 +9373,7 @@
         <v>9.3208743333816493</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2180677354335501</v>
       </c>
     </row>
@@ -9400,7 +9400,7 @@
         <v>13.996831685304601</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.89676129072899968</v>
       </c>
       <c r="S101" s="1">
@@ -9425,7 +9425,7 @@
         <v>8.9988345205783808</v>
       </c>
       <c r="Z101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.7309514693915187</v>
       </c>
     </row>
@@ -9452,7 +9452,7 @@
         <v>9.8606338631361705</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8138129934668292</v>
       </c>
       <c r="S102" s="1">
@@ -9477,7 +9477,7 @@
         <v>10.4330015257</v>
       </c>
       <c r="Z102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9053745046258008</v>
       </c>
     </row>
@@ -9504,7 +9504,7 @@
         <v>8.8223138134926504</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.707983188331049</v>
       </c>
       <c r="S103" s="1">
@@ -9529,7 +9529,7 @@
         <v>10.242594890296401</v>
       </c>
       <c r="Z103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.8530558533966985</v>
       </c>
     </row>
@@ -9556,7 +9556,7 @@
         <v>9.4159714262932503</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7967967595904497</v>
       </c>
       <c r="S104" s="1">
@@ -9581,7 +9581,7 @@
         <v>9.7537265568971598</v>
       </c>
       <c r="Z104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0285895466804398</v>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
         <v>7.9678272865712598</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7504736818373194</v>
       </c>
       <c r="S105" s="1">
@@ -9633,7 +9633,7 @@
         <v>9.1362203136086393</v>
       </c>
       <c r="Z105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8688234537839605</v>
       </c>
     </row>
@@ -9660,7 +9660,7 @@
         <v>11.4048652723431</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.740962471812999</v>
       </c>
       <c r="S106" s="1">
@@ -9685,7 +9685,7 @@
         <v>10.282251939177501</v>
       </c>
       <c r="Z106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5782081522046987</v>
       </c>
     </row>
@@ -9712,7 +9712,7 @@
         <v>7.1761580146849102</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5586992483586091</v>
       </c>
       <c r="S107" s="1">
@@ -9737,7 +9737,7 @@
         <v>9.5444036647677404</v>
       </c>
       <c r="Z107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0717878341674592</v>
       </c>
     </row>
@@ -9764,7 +9764,7 @@
         <v>7.8176826052367598</v>
       </c>
       <c r="J108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3631759155541694</v>
       </c>
       <c r="S108" s="1">
@@ -9789,7 +9789,7 @@
         <v>11.460026349872299</v>
       </c>
       <c r="Z108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.653747927397502</v>
       </c>
     </row>
@@ -9816,7 +9816,7 @@
         <v>8.1708746366202796</v>
       </c>
       <c r="J109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8528480995446213</v>
       </c>
       <c r="S109" s="1">
@@ -9841,7 +9841,7 @@
         <v>8.9849410876631701</v>
       </c>
       <c r="Z109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7877473868429306</v>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
         <v>8.1225167326629109</v>
       </c>
       <c r="J110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1854242198168894</v>
       </c>
       <c r="S110" s="1">
@@ -9893,7 +9893,7 @@
         <v>9.78317540138959</v>
       </c>
       <c r="Z110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7474778629839101</v>
       </c>
     </row>
@@ -9920,7 +9920,7 @@
         <v>11.035695064812799</v>
       </c>
       <c r="J111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4464652631432013</v>
       </c>
       <c r="S111" s="1">
@@ -9945,7 +9945,7 @@
         <v>8.4290916398167592</v>
       </c>
       <c r="Z111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9645086340605413</v>
       </c>
     </row>
@@ -9972,7 +9972,7 @@
         <v>7.5301123298704598</v>
       </c>
       <c r="J112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8605231326073399</v>
       </c>
       <c r="S112" s="1">
@@ -9997,7 +9997,7 @@
         <v>8.4713304974138701</v>
       </c>
       <c r="Z112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2136191725730292</v>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
         <v>8.5359973236918396</v>
       </c>
       <c r="J113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4815499465912598</v>
       </c>
       <c r="S113" s="1">
@@ -10049,7 +10049,7 @@
         <v>8.2883389554917795</v>
       </c>
       <c r="Z113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2320636473595208</v>
       </c>
     </row>
@@ -10076,7 +10076,7 @@
         <v>8.3614511601626802</v>
       </c>
       <c r="J114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.20745253190392</v>
       </c>
       <c r="S114" s="1">
@@ -10101,7 +10101,7 @@
         <v>11.606360889971199</v>
       </c>
       <c r="Z114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9248988367617006</v>
       </c>
     </row>
@@ -10128,7 +10128,7 @@
         <v>9.0830067824572307</v>
       </c>
       <c r="J115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0024394616483701</v>
       </c>
       <c r="S115" s="1">
@@ -10153,7 +10153,7 @@
         <v>9.1791942939162201</v>
       </c>
       <c r="Z115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6035865433513798</v>
       </c>
     </row>
@@ -10180,7 +10180,7 @@
         <v>8.2692014593630994</v>
       </c>
       <c r="J116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4177537765353012</v>
       </c>
       <c r="S116" s="1">
@@ -10205,7 +10205,7 @@
         <v>8.0644385591149295</v>
       </c>
       <c r="Z116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7476103715597713</v>
       </c>
     </row>
@@ -10232,7 +10232,7 @@
         <v>8.1889427062123996</v>
       </c>
       <c r="J117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.600236669182701</v>
       </c>
       <c r="S117" s="1">
@@ -10257,7 +10257,7 @@
         <v>8.3439617827534605</v>
       </c>
       <c r="Z117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6860154047608393</v>
       </c>
     </row>
@@ -10284,7 +10284,7 @@
         <v>7.9339261390268803</v>
       </c>
       <c r="J118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2838477343320189</v>
       </c>
       <c r="S118" s="1">
@@ -10309,7 +10309,7 @@
         <v>10.5652057044208</v>
       </c>
       <c r="Z118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.7158827483654004</v>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
         <v>7.5455784182995496</v>
       </c>
       <c r="J119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.595989441499051</v>
       </c>
       <c r="S119" s="1">
@@ -10361,7 +10361,7 @@
         <v>8.6449600532650894</v>
       </c>
       <c r="Z119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.0810251757502112</v>
       </c>
     </row>
@@ -10388,7 +10388,7 @@
         <v>7.7214780393987796</v>
       </c>
       <c r="J120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9745066426694207</v>
       </c>
       <c r="S120" s="1">
@@ -10413,7 +10413,7 @@
         <v>8.6353891193866694</v>
       </c>
       <c r="Z120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0821774825453314</v>
       </c>
     </row>
@@ -10440,7 +10440,7 @@
         <v>8.5047630462795496</v>
       </c>
       <c r="J121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9449510946869513</v>
       </c>
       <c r="S121" s="1">
@@ -10465,7 +10465,7 @@
         <v>9.0382609665393794</v>
       </c>
       <c r="Z121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5143525227904213</v>
       </c>
     </row>
@@ -10492,7 +10492,7 @@
         <v>8.1050743944942898</v>
       </c>
       <c r="J122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.64699120260771</v>
       </c>
       <c r="S122" s="1">
@@ -10517,7 +10517,7 @@
         <v>8.44877989590168</v>
       </c>
       <c r="Z122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9414243996143199</v>
       </c>
     </row>
@@ -10544,7 +10544,7 @@
         <v>11.8638577647507</v>
       </c>
       <c r="J123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8745014332235002</v>
       </c>
       <c r="S123" s="1">
@@ -10569,7 +10569,7 @@
         <v>8.4406790249049592</v>
       </c>
       <c r="Z123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.6982313878833413</v>
       </c>
     </row>
@@ -10596,7 +10596,7 @@
         <v>9.6179989017546106</v>
       </c>
       <c r="J124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6649814248084898</v>
       </c>
       <c r="S124" s="1">
@@ -10621,7 +10621,7 @@
         <v>8.5197030305862391</v>
       </c>
       <c r="Z124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4232465177773612</v>
       </c>
     </row>
@@ -10648,7 +10648,7 @@
         <v>7.2898592762648997</v>
       </c>
       <c r="J125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1912151314318207</v>
       </c>
       <c r="S125" s="1">
@@ -10673,7 +10673,7 @@
         <v>10.325740776956</v>
       </c>
       <c r="Z125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.4736222177744001</v>
       </c>
     </row>
@@ -10700,7 +10700,7 @@
         <v>8.8065725564956594</v>
       </c>
       <c r="J126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9966173991560403</v>
       </c>
       <c r="S126" s="1">
@@ -10725,7 +10725,7 @@
         <v>9.2652665339410305</v>
       </c>
       <c r="Z126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6482981480657699</v>
       </c>
     </row>
@@ -10752,7 +10752,7 @@
         <v>8.8841018304228694</v>
       </c>
       <c r="Z127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8708796389400302</v>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
         <v>9.2541087046265602</v>
       </c>
       <c r="Z128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7105579674243394</v>
       </c>
     </row>
@@ -10806,7 +10806,7 @@
         <v>9.1606612876057607</v>
       </c>
       <c r="Z129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2949724048375391</v>
       </c>
     </row>
@@ -10833,7 +10833,7 @@
         <v>10.2176462486386</v>
       </c>
       <c r="Z130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.2252652384340994</v>
       </c>
     </row>
@@ -10860,7 +10860,7 @@
         <v>8.5511890165507793</v>
       </c>
       <c r="Z131">
-        <f t="shared" ref="Z131:Z194" si="6">(X131 - Y131)</f>
+        <f t="shared" ref="Z131:Z194" si="8">(X131 - Y131)</f>
         <v>3.0630381517112202</v>
       </c>
     </row>
@@ -10887,7 +10887,7 @@
         <v>10.7278722189366</v>
       </c>
       <c r="Z132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1136392131448005</v>
       </c>
     </row>
@@ -10914,7 +10914,7 @@
         <v>8.1609221696853602</v>
       </c>
       <c r="Z133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8285217881202396</v>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
         <v>8.8291245140135199</v>
       </c>
       <c r="Z134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1012764126061807</v>
       </c>
     </row>
@@ -10968,7 +10968,7 @@
         <v>10.161394726485</v>
       </c>
       <c r="Z135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7354139834642002</v>
       </c>
     </row>
@@ -10995,7 +10995,7 @@
         <v>8.5152434483170492</v>
       </c>
       <c r="Z136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8434917517005509</v>
       </c>
     </row>
@@ -11022,7 +11022,7 @@
         <v>7.92905570194125</v>
       </c>
       <c r="Z137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6838761977850503</v>
       </c>
     </row>
@@ -11049,7 +11049,7 @@
         <v>8.1336384713649696</v>
       </c>
       <c r="Z138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.939329572021931</v>
       </c>
     </row>
@@ -11076,7 +11076,7 @@
         <v>8.9138285033404792</v>
       </c>
       <c r="Z139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2991070896386212</v>
       </c>
     </row>
@@ -11103,7 +11103,7 @@
         <v>7.87396346777677</v>
       </c>
       <c r="Z140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1452337987720291</v>
       </c>
     </row>
@@ -11130,7 +11130,7 @@
         <v>8.1134195886552298</v>
       </c>
       <c r="Z141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5646661221980693</v>
       </c>
     </row>
@@ -11157,7 +11157,7 @@
         <v>7.9212940819561402</v>
       </c>
       <c r="Z142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.710740327835059</v>
       </c>
     </row>
@@ -11184,7 +11184,7 @@
         <v>8.3717124871909601</v>
       </c>
       <c r="Z143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1182148084044403</v>
       </c>
     </row>
@@ -11211,7 +11211,7 @@
         <v>9.7880107276141608</v>
       </c>
       <c r="Z144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4290985986590385</v>
       </c>
     </row>
@@ -11238,7 +11238,7 @@
         <v>8.3401200212538207</v>
       </c>
       <c r="Z145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8835646249353797</v>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
         <v>7.9293339140713197</v>
       </c>
       <c r="Z146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.18040369451038</v>
       </c>
     </row>
@@ -11292,7 +11292,7 @@
         <v>7.9467236101627297</v>
       </c>
       <c r="Z147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3031635619699706</v>
       </c>
     </row>
@@ -11319,7 +11319,7 @@
         <v>9.1980997733771801</v>
       </c>
       <c r="Z148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2505611442029192</v>
       </c>
     </row>
@@ -11346,7 +11346,7 @@
         <v>8.5559550262987596</v>
       </c>
       <c r="Z149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7521354816853396</v>
       </c>
     </row>
@@ -11373,7 +11373,7 @@
         <v>8.5896937176585197</v>
       </c>
       <c r="Z150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.423252850770881</v>
       </c>
     </row>
@@ -11400,7 +11400,7 @@
         <v>8.0820097513496805</v>
       </c>
       <c r="Z151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.41772597655652</v>
       </c>
     </row>
@@ -11427,7 +11427,7 @@
         <v>9.5503217577934194</v>
       </c>
       <c r="Z152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2232969924806802</v>
       </c>
     </row>
@@ -11454,7 +11454,7 @@
         <v>10.6265260763466</v>
       </c>
       <c r="Z153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7977459318935995</v>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
         <v>8.0585598945617605</v>
       </c>
       <c r="Z154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6430492289364391</v>
       </c>
     </row>
@@ -11508,7 +11508,7 @@
         <v>8.65317482128739</v>
       </c>
       <c r="Z155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2300718426704105</v>
       </c>
     </row>
@@ -11535,7 +11535,7 @@
         <v>8.0185584463179094</v>
       </c>
       <c r="Z156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9850101582705904</v>
       </c>
     </row>
@@ -11562,7 +11562,7 @@
         <v>7.9142944738268799</v>
       </c>
       <c r="Z157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8126571178436208</v>
       </c>
     </row>
@@ -11589,7 +11589,7 @@
         <v>8.4172872938215697</v>
       </c>
       <c r="Z158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.42764821276063</v>
       </c>
     </row>
@@ -11616,7 +11616,7 @@
         <v>8.7882069200277293</v>
       </c>
       <c r="Z159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1747847907244715</v>
       </c>
     </row>
@@ -11643,7 +11643,7 @@
         <v>8.4274591766297799</v>
       </c>
       <c r="Z160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.2057950086891207</v>
       </c>
     </row>
@@ -11670,7 +11670,7 @@
         <v>9.1001155078411102</v>
       </c>
       <c r="Z161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5202722176908896</v>
       </c>
     </row>
@@ -11697,7 +11697,7 @@
         <v>9.7423715516924805</v>
       </c>
       <c r="Z162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0974334143102187</v>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
         <v>8.6297225616872293</v>
       </c>
       <c r="Z163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0465339161454708</v>
       </c>
     </row>
@@ -11751,7 +11751,7 @@
         <v>9.1391336917877197</v>
       </c>
       <c r="Z164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9758922159670806</v>
       </c>
     </row>
@@ -11778,7 +11778,7 @@
         <v>8.9674373604357207</v>
       </c>
       <c r="Z165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.3388061411678791</v>
       </c>
     </row>
@@ -11805,7 +11805,7 @@
         <v>7.8192107528448096</v>
       </c>
       <c r="Z166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5343791730701897</v>
       </c>
     </row>
@@ -11832,7 +11832,7 @@
         <v>9.0888361781835503</v>
       </c>
       <c r="Z167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.73209374025455</v>
       </c>
     </row>
@@ -11859,7 +11859,7 @@
         <v>8.62428293004632</v>
       </c>
       <c r="Z168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1170597858726801</v>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
         <v>8.2557291053235495</v>
       </c>
       <c r="Z169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4762009531259501</v>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
         <v>8.9886865168809802</v>
       </c>
       <c r="Z170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0201647765934201</v>
       </c>
     </row>
@@ -11940,7 +11940,7 @@
         <v>8.9372934997081703</v>
       </c>
       <c r="Z171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7152920924126303</v>
       </c>
     </row>
@@ -11967,7 +11967,7 @@
         <v>10.086339723318799</v>
       </c>
       <c r="Z172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1820073127746014</v>
       </c>
     </row>
@@ -11994,7 +11994,7 @@
         <v>8.4326934777200204</v>
       </c>
       <c r="Z173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7981187514959789</v>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
         <v>9.1812028810381801</v>
       </c>
       <c r="Z174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9417123235762208</v>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
         <v>9.9742016158997995</v>
       </c>
       <c r="Z175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.3653331100940012</v>
       </c>
     </row>
@@ -12075,7 +12075,7 @@
         <v>9.1518623568117601</v>
       </c>
       <c r="Z176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4122226759791392</v>
       </c>
     </row>
@@ -12102,7 +12102,7 @@
         <v>7.5191574543714497</v>
       </c>
       <c r="Z177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8761161305009511</v>
       </c>
     </row>
@@ -12129,7 +12129,7 @@
         <v>7.7222949303686601</v>
       </c>
       <c r="Z178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.46408709138624</v>
       </c>
     </row>
@@ -12156,7 +12156,7 @@
         <v>8.1901275143027306</v>
       </c>
       <c r="Z179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.1251034773885689</v>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
         <v>9.5777855180203897</v>
       </c>
       <c r="Z180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4037318453192107</v>
       </c>
     </row>
@@ -12210,7 +12210,7 @@
         <v>9.0779626630246604</v>
       </c>
       <c r="Z181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2023965120315392</v>
       </c>
     </row>
@@ -12237,7 +12237,7 @@
         <v>8.33801072090864</v>
       </c>
       <c r="Z182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.3394737504422594</v>
       </c>
     </row>
@@ -12264,7 +12264,7 @@
         <v>7.6031186319887603</v>
       </c>
       <c r="Z183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1213397644460201</v>
       </c>
     </row>
@@ -12291,7 +12291,7 @@
         <v>7.1541018262505496</v>
       </c>
       <c r="Z184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0219300389289501</v>
       </c>
     </row>
@@ -12318,7 +12318,7 @@
         <v>7.5936377644538799</v>
       </c>
       <c r="Z185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6854446604847206</v>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
         <v>7.5780548453330896</v>
       </c>
       <c r="Z186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5270990096032095</v>
       </c>
     </row>
@@ -12372,7 +12372,7 @@
         <v>7.3045381009578696</v>
       </c>
       <c r="Z187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4594369530677804</v>
       </c>
     </row>
@@ -12399,7 +12399,7 @@
         <v>8.8752488493919302</v>
       </c>
       <c r="Z188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7139680162071702</v>
       </c>
     </row>
@@ -12426,7 +12426,7 @@
         <v>7.0593403168022597</v>
       </c>
       <c r="Z189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4099623635411298</v>
       </c>
     </row>
@@ -12453,7 +12453,7 @@
         <v>9.0751810111105407</v>
       </c>
       <c r="Z190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9660619609057601</v>
       </c>
     </row>
@@ -12480,7 +12480,7 @@
         <v>8.0651224888861108</v>
       </c>
       <c r="Z191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9803239144384897</v>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
         <v>7.7036652006208897</v>
       </c>
       <c r="Z192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4331984445452104</v>
       </c>
     </row>
@@ -12534,7 +12534,7 @@
         <v>7.7330890260636798</v>
       </c>
       <c r="Z193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3160803318023211</v>
       </c>
     </row>
@@ -12561,7 +12561,7 @@
         <v>8.4764365330338407</v>
       </c>
       <c r="Z194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9972997382282589</v>
       </c>
     </row>
@@ -12588,7 +12588,7 @@
         <v>7.5157399252056996</v>
       </c>
       <c r="Z195">
-        <f t="shared" ref="Z195:Z226" si="7">(X195 - Y195)</f>
+        <f t="shared" ref="Z195:Z226" si="9">(X195 - Y195)</f>
         <v>2.3118182532489309</v>
       </c>
     </row>
@@ -12615,7 +12615,7 @@
         <v>8.3146008625626493</v>
       </c>
       <c r="Z196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8104299195110514</v>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
         <v>8.7563873678445798</v>
       </c>
       <c r="Z197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8714125528931209</v>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
         <v>9.2190719991922307</v>
       </c>
       <c r="Z198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1194214075803686</v>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
         <v>10.4634922407567</v>
       </c>
       <c r="Z199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6297857798635995</v>
       </c>
     </row>
@@ -12723,7 +12723,7 @@
         <v>9.1190310828387702</v>
       </c>
       <c r="Z200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7629786469042301</v>
       </c>
     </row>
@@ -12750,7 +12750,7 @@
         <v>11.0373743586242</v>
       </c>
       <c r="Z201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4698885604738994</v>
       </c>
     </row>
@@ -12777,7 +12777,7 @@
         <v>8.0278455838561005</v>
       </c>
       <c r="Z202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5149982981383001</v>
       </c>
     </row>
@@ -12804,7 +12804,7 @@
         <v>8.7298213578760606</v>
       </c>
       <c r="Z203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3934673294424389</v>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
         <v>7.4604289308190301</v>
       </c>
       <c r="Z204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.53652095794678</v>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
         <v>8.6859591566026193</v>
       </c>
       <c r="Z205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7622378319501806</v>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
         <v>8.5349960625171608</v>
       </c>
       <c r="Z206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7237794250249383</v>
       </c>
     </row>
@@ -12912,7 +12912,7 @@
         <v>8.0595688298344594</v>
       </c>
       <c r="Z207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7220779061317408</v>
       </c>
     </row>
@@ -12939,7 +12939,7 @@
         <v>9.5471485257148707</v>
       </c>
       <c r="Z208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.10441212728613</v>
       </c>
     </row>
@@ -12966,7 +12966,7 @@
         <v>8.3093646988272596</v>
       </c>
       <c r="Z209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0791002660989406</v>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
         <v>9.0788092240691096</v>
       </c>
       <c r="Z210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0808432735501903</v>
       </c>
     </row>
@@ -13020,7 +13020,7 @@
         <v>7.9125571660697398</v>
       </c>
       <c r="Z211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.90694521740076</v>
       </c>
     </row>
@@ -13047,7 +13047,7 @@
         <v>8.9211881570517999</v>
       </c>
       <c r="Z212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7083012387156007</v>
       </c>
     </row>
@@ -13074,7 +13074,7 @@
         <v>7.6922436654567701</v>
       </c>
       <c r="Z213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2404886335134293</v>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
         <v>7.8334732614457598</v>
       </c>
       <c r="Z214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.422013711184241</v>
       </c>
     </row>
@@ -13128,7 +13128,7 @@
         <v>8.3396927975118107</v>
       </c>
       <c r="Z215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2285444028674899</v>
       </c>
     </row>
@@ -13155,7 +13155,7 @@
         <v>7.5966363251209197</v>
       </c>
       <c r="Z216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3058061674236798</v>
       </c>
     </row>
@@ -13182,7 +13182,7 @@
         <v>10.4631137996912</v>
       </c>
       <c r="Z217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7079276442526989</v>
       </c>
     </row>
@@ -13209,7 +13209,7 @@
         <v>9.5295518040657008</v>
       </c>
       <c r="Z218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.150597687810599</v>
       </c>
     </row>
@@ -13236,7 +13236,7 @@
         <v>8.4317969828843999</v>
       </c>
       <c r="Z219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4428601562976002</v>
       </c>
     </row>
@@ -13263,7 +13263,7 @@
         <v>7.9864117763936502</v>
       </c>
       <c r="Z220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5900103785097492</v>
       </c>
     </row>
@@ -13290,7 +13290,7 @@
         <v>7.7474893704056704</v>
       </c>
       <c r="Z221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3808650523423296</v>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
         <v>8.0377290323376602</v>
       </c>
       <c r="Z222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6161638684570399</v>
       </c>
     </row>
@@ -13344,7 +13344,7 @@
         <v>8.6678273230791092</v>
       </c>
       <c r="Z223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4086513407527903</v>
       </c>
     </row>
@@ -13371,7 +13371,7 @@
         <v>8.8322291262447798</v>
       </c>
       <c r="Z224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5094517432153207</v>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
         <v>8.2336918190121597</v>
       </c>
       <c r="Z225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0062893293797401</v>
       </c>
     </row>
@@ -13425,7 +13425,7 @@
         <v>7.8450347594916803</v>
       </c>
       <c r="Z226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7819434329867203</v>
       </c>
     </row>
